--- a/src/main/Horary Model Bisiesto.xlsx
+++ b/src/main/Horary Model Bisiesto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayos\Documents\GitHub\Control-Horarios\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7D48BB-54B1-427E-AE71-36144965799D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3F5D67-FC5C-4863-947E-DDCCB658CB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="37">
   <si>
     <t>Festivo nacional</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Días Restantes de Vacaciones</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -464,6 +467,8 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,8 +881,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,6 +1013,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -1020,6 +1028,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
@@ -1464,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6486AC-E003-4CAB-A4AB-BA9BC6FF6CEA}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G46"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,6 +1593,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -1593,6 +1608,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -2037,7 +2056,7 @@
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,6 +2172,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -2165,6 +2187,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -2597,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3618790-2BCB-4B60-BBFB-C820F665B2BD}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:H62"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,6 +2740,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -2726,6 +2755,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -3169,8 +3202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E731D6A-1AF2-42E7-AE13-0257C1BC47F0}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,6 +3334,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -3313,6 +3349,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
@@ -3750,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCE4023-35E9-4427-A2E3-62E45B00EDF5}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3882,6 +3922,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -3894,6 +3937,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -4339,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C68094-695E-4DEE-9781-A162D3F8C272}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4471,6 +4518,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -4483,6 +4533,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -4920,8 +4974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67EED29-FE3C-458D-A7F1-9E7329998434}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,6 +5106,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -5064,6 +5121,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -5507,8 +5568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6AC2CD-893F-41C5-9C9B-6E61F154DBF8}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5629,6 +5690,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -5641,6 +5705,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -6074,8 +6142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31BE021-B7E6-4F89-B7B6-87A6EC5D824F}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6191,6 +6259,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -6203,6 +6274,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -6646,8 +6721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF978304-926E-4C89-893F-97ABC2FEF105}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6763,6 +6838,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -6775,6 +6853,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -7218,8 +7300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A203EC-78E1-474A-A815-50A7240493FD}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7335,6 +7417,9 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="34" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
@@ -7347,6 +7432,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
+      <c r="I15" s="35">
+        <f>(G49-G47)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
